--- a/www/IndicatorsPerCountry/Romania_BookTitlesperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
+++ b/www/IndicatorsPerCountry/Romania_BookTitlesperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
@@ -198,13 +198,13 @@
     <t>Fink-Jensen, Jonathan (2015). Book Titles per Capita. http://hdl.handle.net/10622/AOQMAZ, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_AOQMAZ.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_AOQMAZ.bib</t>
   </si>
 </sst>
 </file>
